--- a/gazeteler.xlsx
+++ b/gazeteler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="680" windowWidth="24240" windowHeight="12340"/>
+    <workbookView xWindow="180" yWindow="680" windowWidth="16540" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="662">
   <si>
     <t>Gazete Adı</t>
   </si>
@@ -1964,9 +1964,6 @@
     <t>http://www.kayseriyenihaber.com/</t>
   </si>
   <si>
-    <t>urllerin çoğu alınamıyor problem var</t>
-  </si>
-  <si>
     <t>video ve haber ayrımı yok</t>
   </si>
   <si>
@@ -1974,6 +1971,42 @@
   </si>
   <si>
     <t>video yok, yazar yazıları alınamıyor</t>
+  </si>
+  <si>
+    <t>haber ve yazar ayrılamıyor</t>
+  </si>
+  <si>
+    <t>video haber ayrımı yok</t>
+  </si>
+  <si>
+    <t>yazar ve haber ayrımı yapılamıyor, bazı haberler başka siteye ait</t>
+  </si>
+  <si>
+    <t>http://www.sivasirade.com/, video yok</t>
+  </si>
+  <si>
+    <t>http://www.kayseriulkergazetesi.com/</t>
+  </si>
+  <si>
+    <t>http://www.vansesigazetesi.com/</t>
+  </si>
+  <si>
+    <t>demirmedya</t>
+  </si>
+  <si>
+    <t>http://www.yenisehiryorem.com/, video ve haber ayrımı yok</t>
+  </si>
+  <si>
+    <t>sıkıntılı gibi</t>
+  </si>
+  <si>
+    <t>urllerin çoğu alınamıyor problem var, script ile sayfa geliyor sanırım</t>
+  </si>
+  <si>
+    <t>http://www.hizmetgazetesi.com.tr/, video haber ayrımı yok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> video yok</t>
   </si>
 </sst>
 </file>
@@ -2056,13 +2089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FF3366FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,7 +2127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2144,8 +2177,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2190,19 +2278,20 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="104">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2249,6 +2338,61 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -2632,15 +2776,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" customWidth="1"/>
@@ -2697,7 +2841,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="13">
@@ -2712,7 +2856,9 @@
       <c r="E4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
@@ -2931,7 +3077,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="30" t="s">
         <v>421</v>
       </c>
       <c r="B16" s="16">
@@ -2949,7 +3095,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="13">
@@ -3085,7 +3231,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="13">
@@ -3295,7 +3441,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="13">
@@ -3351,7 +3497,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="13">
@@ -3366,10 +3512,12 @@
       <c r="E38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="13">
@@ -3427,7 +3575,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="13">
@@ -3442,7 +3590,9 @@
       <c r="E42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="19" t="s">
@@ -3682,7 +3832,7 @@
       <c r="C55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="24" t="s">
         <v>392</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -3693,7 +3843,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="31" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="13"/>
@@ -3745,7 +3895,7 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B59" s="13">
@@ -3783,7 +3933,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="13">
@@ -3798,7 +3948,9 @@
       <c r="E61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="19" t="s">
@@ -3855,7 +4007,7 @@
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B65" s="13">
@@ -3873,7 +4025,7 @@
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B66" s="13"/>
@@ -3889,7 +4041,7 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="13">
@@ -3927,7 +4079,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B69" s="13">
@@ -3942,10 +4094,12 @@
       <c r="E69" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="13">
@@ -3960,7 +4114,9 @@
       <c r="E70" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="19" t="s">
@@ -3994,7 +4150,7 @@
       <c r="E72" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="25" t="s">
         <v>636</v>
       </c>
     </row>
@@ -4131,7 +4287,7 @@
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B80" s="13">
@@ -4169,7 +4325,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="13">
@@ -4202,7 +4358,7 @@
       <c r="E83" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="26" t="s">
         <v>639</v>
       </c>
     </row>
@@ -4227,7 +4383,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="13">
@@ -4245,7 +4401,7 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="13">
@@ -4260,7 +4416,9 @@
       <c r="E86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="19" t="s">
@@ -4336,10 +4494,10 @@
       <c r="E90" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F90" s="28"/>
+      <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>609</v>
       </c>
       <c r="B91" s="13">
@@ -4350,7 +4508,9 @@
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="19" t="s">
@@ -4671,7 +4831,7 @@
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B109" s="13">
@@ -4879,7 +5039,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="27" t="s">
         <v>362</v>
       </c>
       <c r="B120" s="13">
@@ -4975,7 +5135,7 @@
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="13">
@@ -4993,7 +5153,7 @@
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B126" s="13">
@@ -5013,7 +5173,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="29" t="s">
         <v>384</v>
       </c>
       <c r="B127" s="13">
@@ -5029,7 +5189,7 @@
         <v>386</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5051,7 +5211,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="30" t="s">
         <v>299</v>
       </c>
       <c r="B129" s="13">
@@ -5163,7 +5323,7 @@
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B135" s="13">
@@ -5197,7 +5357,7 @@
         <v>517</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5333,7 +5493,7 @@
         <v>522</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5387,7 +5547,7 @@
         <v>219</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5409,7 +5569,7 @@
       <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B148" s="13">
@@ -5447,7 +5607,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B150" s="13">
@@ -5462,7 +5622,9 @@
       <c r="E150" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="19" t="s">
@@ -5485,7 +5647,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B152" s="13">
@@ -5503,7 +5665,7 @@
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B153" s="13">
@@ -5521,7 +5683,7 @@
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B154" s="13">
@@ -5536,10 +5698,12 @@
       <c r="E154" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F154" s="4"/>
+      <c r="F154" s="4" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="19" t="s">
         <v>334</v>
       </c>
       <c r="B155" s="13">
@@ -5554,10 +5718,12 @@
       <c r="E155" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F155" s="4"/>
+      <c r="F155" s="4" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B156" s="13">
@@ -5575,7 +5741,7 @@
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="19" t="s">
         <v>538</v>
       </c>
       <c r="B157" s="13">
@@ -5590,10 +5756,12 @@
       <c r="E157" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="19" t="s">
         <v>540</v>
       </c>
       <c r="B158" s="13">
@@ -5608,10 +5776,12 @@
       <c r="E158" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="19" t="s">
         <v>403</v>
       </c>
       <c r="B159" s="13">
@@ -5620,7 +5790,7 @@
       <c r="C159" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="28" t="s">
         <v>404</v>
       </c>
       <c r="E159" s="7" t="s">
@@ -5629,7 +5799,7 @@
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B160" s="13">
@@ -5647,7 +5817,7 @@
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="19" t="s">
         <v>331</v>
       </c>
       <c r="B161" s="13">
@@ -5665,7 +5835,7 @@
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="19" t="s">
         <v>445</v>
       </c>
       <c r="B162" s="13">
@@ -5680,10 +5850,12 @@
       <c r="E162" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B163" s="13">
@@ -5698,10 +5870,12 @@
       <c r="E163" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F163" s="4"/>
+      <c r="F163" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="26" t="s">
+      <c r="A164" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B164" s="12">
@@ -5719,7 +5893,7 @@
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B165" s="13">
@@ -5734,10 +5908,12 @@
       <c r="E165" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="19" t="s">
         <v>310</v>
       </c>
       <c r="B166" s="13">
@@ -5755,7 +5931,7 @@
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="13">
@@ -5773,7 +5949,7 @@
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="30" t="s">
         <v>416</v>
       </c>
       <c r="B168" s="13">
@@ -5791,7 +5967,7 @@
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="19" t="s">
         <v>433</v>
       </c>
       <c r="B169" s="13">
@@ -5809,7 +5985,7 @@
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="30" t="s">
         <v>296</v>
       </c>
       <c r="B170" s="13">
@@ -5827,7 +6003,7 @@
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="19" t="s">
         <v>575</v>
       </c>
       <c r="B171" s="13">
@@ -5842,10 +6018,12 @@
       <c r="E171" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="F171" s="4"/>
+      <c r="F171" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="19" t="s">
         <v>547</v>
       </c>
       <c r="B172" s="13">
@@ -5863,7 +6041,7 @@
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="19" t="s">
         <v>393</v>
       </c>
       <c r="B173" s="13">
@@ -5881,7 +6059,7 @@
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="19" t="s">
         <v>481</v>
       </c>
       <c r="B174" s="13">
@@ -5896,10 +6074,12 @@
       <c r="E174" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F174" s="4"/>
+      <c r="F174" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="24" t="s">
+      <c r="A175" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B175" s="13">
@@ -5917,7 +6097,7 @@
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B176" s="13">
@@ -5935,7 +6115,7 @@
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="19" t="s">
         <v>249</v>
       </c>
       <c r="B177" s="13">
@@ -5953,7 +6133,7 @@
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="19" t="s">
         <v>530</v>
       </c>
       <c r="B178" s="14">
@@ -5968,10 +6148,12 @@
       <c r="E178" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F178" s="4"/>
+      <c r="F178" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="19" t="s">
         <v>347</v>
       </c>
       <c r="B179" s="13">
@@ -5986,10 +6168,12 @@
       <c r="E179" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="19" t="s">
         <v>553</v>
       </c>
       <c r="B180" s="13">
@@ -6004,10 +6188,12 @@
       <c r="E180" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F180" s="4"/>
+      <c r="F180" s="4" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="19" t="s">
         <v>591</v>
       </c>
       <c r="B181" s="13">
@@ -6025,7 +6211,7 @@
       <c r="F181" s="4"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="19" t="s">
         <v>273</v>
       </c>
       <c r="B182" s="13">
@@ -6043,7 +6229,7 @@
       <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B183" s="13">
@@ -6058,10 +6244,12 @@
       <c r="E183" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F183" s="4"/>
+      <c r="F183" s="4" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="19" t="s">
         <v>427</v>
       </c>
       <c r="B184" s="13">
@@ -6076,10 +6264,12 @@
       <c r="E184" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F184" s="4"/>
+      <c r="F184" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="19" t="s">
         <v>240</v>
       </c>
       <c r="B185" s="13">
@@ -6094,10 +6284,12 @@
       <c r="E185" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F185" s="4"/>
+      <c r="F185" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B186" s="13">
@@ -6115,7 +6307,7 @@
       <c r="F186" s="4"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="19" t="s">
         <v>291</v>
       </c>
       <c r="B187" s="13">
@@ -6130,10 +6322,12 @@
       <c r="E187" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F187" s="4"/>
+      <c r="F187" s="4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="24" t="s">
+      <c r="A188" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="13">
@@ -6151,7 +6345,7 @@
       <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="13">
@@ -6166,10 +6360,12 @@
       <c r="E189" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B190" s="13">
@@ -6187,7 +6383,7 @@
       <c r="F190" s="4"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="19" t="s">
         <v>557</v>
       </c>
       <c r="B191" s="13">
@@ -6205,7 +6401,7 @@
       <c r="F191" s="4"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B192" s="13">
@@ -6214,16 +6410,18 @@
       <c r="C192" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D192" s="17" t="s">
+      <c r="D192" s="28" t="s">
         <v>189</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F192" s="4"/>
+      <c r="F192" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B193" s="13">
@@ -6241,7 +6439,7 @@
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="24" t="s">
+      <c r="A194" s="30" t="s">
         <v>207</v>
       </c>
       <c r="B194" s="13">
@@ -6259,7 +6457,7 @@
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B195" s="13">
@@ -6274,10 +6472,12 @@
       <c r="E195" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F195" s="4"/>
+      <c r="F195" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="19" t="s">
         <v>524</v>
       </c>
       <c r="B196" s="13">
@@ -6292,10 +6492,12 @@
       <c r="E196" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F196" s="4"/>
+      <c r="F196" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="19" t="s">
         <v>480</v>
       </c>
       <c r="B197" s="13">
@@ -6310,10 +6512,12 @@
       <c r="E197" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F197" s="4"/>
+      <c r="F197" s="4" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B198" s="13">
@@ -6328,10 +6532,12 @@
       <c r="E198" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F198" s="4"/>
+      <c r="F198" s="4" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="24" t="s">
+      <c r="A199" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B199" s="13">
@@ -6346,10 +6552,12 @@
       <c r="E199" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F199" s="4"/>
+      <c r="F199" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="19" t="s">
         <v>220</v>
       </c>
       <c r="B200" s="13">
@@ -6364,7 +6572,9 @@
       <c r="E200" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F200" s="4"/>
+      <c r="F200" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="4"/>
